--- a/guess_the_number_test_cases.xlsx
+++ b/guess_the_number_test_cases.xlsx
@@ -57,9 +57,6 @@
     <t>correct game hint is provided</t>
   </si>
   <si>
-    <t>ValueError for non int()</t>
-  </si>
-  <si>
     <t>Verify Select Range buttons</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>incomplete requirements</t>
   </si>
   <si>
     <t>game restart</t>
@@ -140,6 +134,12 @@
   </si>
   <si>
     <t>Code needs to be copied into www.codeskulptor.org because of simplegui library</t>
+  </si>
+  <si>
+    <t>program crashes with ValueError for non int()</t>
+  </si>
+  <si>
+    <t>incomplete requirements see notes: 2.1</t>
   </si>
 </sst>
 </file>
@@ -505,14 +505,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" customWidth="1"/>
     <col min="5" max="5" width="44.7109375" customWidth="1"/>
     <col min="6" max="6" width="50.28515625" customWidth="1"/>
@@ -529,15 +529,15 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -566,10 +566,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -580,13 +580,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
         <v>1.2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
@@ -609,15 +609,15 @@
         <v>2.1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -626,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -649,42 +649,42 @@
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>3.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
@@ -707,7 +707,7 @@
     <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>7</v>
@@ -722,7 +722,7 @@
         <v>3.1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
@@ -730,10 +730,10 @@
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>4.0999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
@@ -741,10 +741,10 @@
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>

--- a/guess_the_number_test_cases.xlsx
+++ b/guess_the_number_test_cases.xlsx
@@ -124,12 +124,6 @@
     <t>Print secret_num in new_game() to view answer. Input  following scenarios:</t>
   </si>
   <si>
-    <t>Incorrect guess: numeric. Guesses&gt;0</t>
-  </si>
-  <si>
-    <t>incorrect guess non-numeric (including blank)</t>
-  </si>
-  <si>
     <t>losing message is displayed</t>
   </si>
   <si>
@@ -140,6 +134,12 @@
   </si>
   <si>
     <t>incomplete requirements see notes: 2.1</t>
+  </si>
+  <si>
+    <t>Incorrect guess: integer. Guesses&gt;0</t>
+  </si>
+  <si>
+    <t>incorrect guess non-integer (including blank)</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
         <v>2.1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -652,13 +652,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>27</v>

--- a/guess_the_number_test_cases.xlsx
+++ b/guess_the_number_test_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Script:</t>
   </si>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <t>requirements specify no input validation</t>
-  </si>
-  <si>
-    <t>Correct guess, guesses=0</t>
-  </si>
-  <si>
-    <t>incorrect guess, guesses=0</t>
   </si>
   <si>
     <t>new frame opens</t>
@@ -140,6 +134,24 @@
   </si>
   <si>
     <t>incorrect guess non-integer (including blank)</t>
+  </si>
+  <si>
+    <t>Automation Recommendations</t>
+  </si>
+  <si>
+    <t>replicate successful binary search of valid inputs for each max number 100 and 1000. Test conditions for  game win output</t>
+  </si>
+  <si>
+    <t>replicate unsuccessful game play (non-binary search) with valid inputs for each max number 100 and 1000. test conditions for losing game output</t>
+  </si>
+  <si>
+    <t>fuzz test user input for unexpected crashes</t>
+  </si>
+  <si>
+    <t>Correct guess, guesses=0 (final guess)</t>
+  </si>
+  <si>
+    <t>incorrect guess, guesses=0 (final guess)</t>
   </si>
 </sst>
 </file>
@@ -503,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F24"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,15 +541,15 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -566,10 +578,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -580,13 +592,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -609,7 +621,7 @@
         <v>2.1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -617,7 +629,7 @@
         <v>2.1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -652,13 +664,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -666,7 +681,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
@@ -675,10 +690,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -690,12 +705,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2.4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>21</v>
@@ -753,9 +768,38 @@
     <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
